--- a/python/サンプルデータ.xlsx
+++ b/python/サンプルデータ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.115.195.56097"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="temp" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
   <si>
     <t>name</t>
   </si>
@@ -1144,6 +1144,27 @@
   </si>
   <si>
     <t>https://i.gyazo.com/8dc5acfdf74b576dc1f91bd58a65854d.png</t>
+  </si>
+  <si>
+    <t>ホテル系コーポレートページ</t>
+  </si>
+  <si>
+    <t>娯楽施設</t>
+  </si>
+  <si>
+    <t>/temple/sample03</t>
+  </si>
+  <si>
+    <t>2025-10-11 10:00</t>
+  </si>
+  <si>
+    <t>2025/10/11 10:00</t>
+  </si>
+  <si>
+    <t>https://gyazo.com/77fafac950a1f1025b9b66ed067016b7</t>
+  </si>
+  <si>
+    <t>https://i.gyazo.com/77fafac950a1f1025b9b66ed067016b7.png</t>
   </si>
 </sst>
 </file>
@@ -1293,14 +1314,14 @@
     </font>
     <font>
       <u/>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10.0"/>
       <name val="メイリオ"/>
-      <color theme="10"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
       <color theme="10"/>
     </font>
   </fonts>
@@ -1840,10 +1861,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2164,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.000000"/>
@@ -2202,7 +2223,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.600000">
+    <row r="2" spans="1:7" ht="12.550000">
       <c r="A2" s="0">
         <f>IF(B2="","",ROW()-1)</f>
         <v>1</v>
@@ -2216,7 +2237,7 @@
       <c r="D2" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>368</v>
       </c>
       <c r="F2" s="19" t="s">
@@ -2239,7 +2260,7 @@
       <c r="D3" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="16" t="s">
         <v>373</v>
       </c>
       <c r="F3" s="19" t="s">
@@ -2247,6 +2268,29 @@
       </c>
       <c r="G3" s="19" t="s">
         <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -2254,9 +2298,10 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E3"/>
     <hyperlink r:id="rId2" ref="E2"/>
+    <hyperlink r:id="rId3" ref="E4"/>
   </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/python/サンプルデータ.xlsx
+++ b/python/サンプルデータ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.115.195.56097"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="temp" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
     <t>name</t>
   </si>
@@ -1165,6 +1165,21 @@
   </si>
   <si>
     <t>https://i.gyazo.com/77fafac950a1f1025b9b66ed067016b7.png</t>
+  </si>
+  <si>
+    <t>インテリデザイン系ページ</t>
+  </si>
+  <si>
+    <t>デザイン</t>
+  </si>
+  <si>
+    <t>https://i.gyazo.com/1aabc5b84aaadadf57aecd58c9c32a27.png</t>
+  </si>
+  <si>
+    <t>2025/10/13 10:00</t>
+  </si>
+  <si>
+    <t>/temple/sample04</t>
   </si>
 </sst>
 </file>
@@ -2185,10 +2200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.000000"/>
@@ -2283,7 +2298,7 @@
       <c r="D4" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="16" t="s">
         <v>380</v>
       </c>
       <c r="F4" s="19" t="s">
@@ -2291,6 +2306,29 @@
       </c>
       <c r="G4" s="19" t="s">
         <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2299,9 +2337,10 @@
     <hyperlink r:id="rId1" ref="E3"/>
     <hyperlink r:id="rId2" ref="E2"/>
     <hyperlink r:id="rId3" ref="E4"/>
+    <hyperlink r:id="rId4" ref="E5"/>
   </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/python/サンプルデータ.xlsx
+++ b/python/サンプルデータ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.115.195.56097"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="temp" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
     <t>name</t>
   </si>
@@ -1180,6 +1180,21 @@
   </si>
   <si>
     <t>/temple/sample04</t>
+  </si>
+  <si>
+    <t>ダッシュボードページ</t>
+  </si>
+  <si>
+    <t>共通</t>
+  </si>
+  <si>
+    <t>/temple/sample05</t>
+  </si>
+  <si>
+    <t>https://i.gyazo.com/c76325ca9c76e45b2d964324d6c5e496.png</t>
+  </si>
+  <si>
+    <t>2025/12/31 10:00</t>
   </si>
 </sst>
 </file>
@@ -2200,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.000000"/>
@@ -2321,7 +2336,7 @@
       <c r="D5" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="16" t="s">
         <v>383</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -2329,6 +2344,29 @@
       </c>
       <c r="G5" s="19" t="s">
         <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -2338,9 +2376,10 @@
     <hyperlink r:id="rId2" ref="E2"/>
     <hyperlink r:id="rId3" ref="E4"/>
     <hyperlink r:id="rId4" ref="E5"/>
+    <hyperlink r:id="rId5" ref="E6"/>
   </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>